--- a/testcase/InterestTestData.xlsx
+++ b/testcase/InterestTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitproject\QLSTK\testcase\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>No</t>
   </si>
@@ -53,7 +53,31 @@
     <t>caculateInterest in term không có ngày dư</t>
   </si>
   <si>
-    <t>yes</t>
+    <t>HN000002</t>
+  </si>
+  <si>
+    <t>HN000003</t>
+  </si>
+  <si>
+    <t>HN000004</t>
+  </si>
+  <si>
+    <t>caculateInterest in term = 0</t>
+  </si>
+  <si>
+    <t>caculateInterest in term &gt; 0 đạt kì hạn &gt;=2 lần có ngày dư</t>
+  </si>
+  <si>
+    <t>caculateInterest in term &gt; 0 đạt kì hạn &gt;=2 lần không có ngày dư</t>
+  </si>
+  <si>
+    <t>caculateInterest in term &gt; 0 chưa đủ kì hạn</t>
+  </si>
+  <si>
+    <t>caculateInterest test vừa lập vừa rút luôn</t>
+  </si>
+  <si>
+    <t>caculateInterest in term có ngày dư</t>
   </si>
 </sst>
 </file>
@@ -61,7 +85,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -104,8 +128,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -388,19 +412,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="16.21875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="10.21875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="5" max="16384" style="1" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="9.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.21875" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="8.88671875" style="1" collapsed="1"/>
+    <col min="7" max="7" width="25.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -434,19 +460,115 @@
         <v>7</v>
       </c>
       <c r="C2" s="4">
+        <v>43556</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8036000</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
         <v>43544</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="2">
         <v>8000000</v>
       </c>
-      <c r="E2" t="n">
-        <v>8000000.0</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
+      <c r="C4" s="4">
+        <v>43556</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1033333</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>43556</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1033333</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4">
+        <v>43544</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7744400</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4">
+        <v>43556</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7780315</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>43184</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/testcase/InterestTestData.xlsx
+++ b/testcase/InterestTestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="28">
   <si>
     <t>No</t>
   </si>
@@ -50,9 +50,6 @@
     <t>HN000001</t>
   </si>
   <si>
-    <t>caculateInterest in term không có ngày dư</t>
-  </si>
-  <si>
     <t>HN000002</t>
   </si>
   <si>
@@ -62,22 +59,55 @@
     <t>HN000004</t>
   </si>
   <si>
-    <t>caculateInterest in term = 0</t>
-  </si>
-  <si>
-    <t>caculateInterest in term &gt; 0 đạt kì hạn &gt;=2 lần có ngày dư</t>
-  </si>
-  <si>
-    <t>caculateInterest in term &gt; 0 đạt kì hạn &gt;=2 lần không có ngày dư</t>
-  </si>
-  <si>
-    <t>caculateInterest in term &gt; 0 chưa đủ kì hạn</t>
-  </si>
-  <si>
-    <t>caculateInterest test vừa lập vừa rút luôn</t>
-  </si>
-  <si>
-    <t>caculateInterest in term có ngày dư</t>
+    <t>HN000005</t>
+  </si>
+  <si>
+    <t>HN000006</t>
+  </si>
+  <si>
+    <t>HN000007</t>
+  </si>
+  <si>
+    <t>HN000008</t>
+  </si>
+  <si>
+    <t>HN000009</t>
+  </si>
+  <si>
+    <t>HN000010</t>
+  </si>
+  <si>
+    <t>HN000011</t>
+  </si>
+  <si>
+    <t>HN000012</t>
+  </si>
+  <si>
+    <t>HN000013</t>
+  </si>
+  <si>
+    <t>HN000014</t>
+  </si>
+  <si>
+    <t>HN000015</t>
+  </si>
+  <si>
+    <t>Kì hạn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đáo hạn đúng ngày </t>
+  </si>
+  <si>
+    <t>Đáo hạn sớm</t>
+  </si>
+  <si>
+    <t>Đáo hạn quá ngày nhưng chưa đủ kì hạn mới</t>
+  </si>
+  <si>
+    <t>Đáo hạn khi trải qua đúng 2 kì hạn</t>
+  </si>
+  <si>
+    <t>Đáo hạn khi trảu qua quá 2 kì hạn nhưng chưa sang kì hạn mới</t>
   </si>
 </sst>
 </file>
@@ -412,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,12 +454,13 @@
     <col min="2" max="2" width="16.21875" style="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="8.88671875" style="1" collapsed="1"/>
-    <col min="7" max="7" width="25.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.88671875" style="1" collapsed="1"/>
+    <col min="7" max="7" width="54.5546875" style="1" customWidth="1" collapsed="1"/>
     <col min="8" max="16384" width="8.88671875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +482,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -460,16 +494,19 @@
         <v>7</v>
       </c>
       <c r="C2" s="4">
-        <v>43556</v>
-      </c>
-      <c r="D2" s="1">
-        <v>8036000</v>
+        <v>43188</v>
+      </c>
+      <c r="D2">
+        <v>77777</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -477,98 +514,1476 @@
         <v>7</v>
       </c>
       <c r="C3" s="4">
-        <v>43544</v>
-      </c>
-      <c r="D3" s="2">
-        <v>8000000</v>
+        <v>43190</v>
+      </c>
+      <c r="D3">
+        <v>458333</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4">
-        <v>43556</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1033333</v>
+        <v>43191</v>
+      </c>
+      <c r="D4">
+        <v>461124</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4">
-        <v>43556</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1033333</v>
+        <v>43220</v>
+      </c>
+      <c r="D5">
+        <v>918767</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4">
-        <v>43544</v>
-      </c>
-      <c r="D6" s="2">
-        <v>7744400</v>
+        <v>43221</v>
+      </c>
+      <c r="D6">
+        <v>921571</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4">
-        <v>43556</v>
-      </c>
-      <c r="D7" s="2">
-        <v>7780315</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>43218</v>
+      </c>
+      <c r="D7">
+        <v>161111</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4">
-        <v>43184</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
+        <v>43220</v>
+      </c>
+      <c r="D8">
+        <v>916667</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43221</v>
+      </c>
+      <c r="D9">
+        <v>919470</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43280</v>
+      </c>
+      <c r="D10">
+        <v>1841736</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>43281</v>
+      </c>
+      <c r="D11">
+        <v>1844565</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43248</v>
+      </c>
+      <c r="D12">
+        <v>244444</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>43250</v>
+      </c>
+      <c r="D13">
+        <v>1375000</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43251</v>
+      </c>
+      <c r="D14">
+        <v>1377816</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>43340</v>
+      </c>
+      <c r="D15">
+        <v>2768906</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43341</v>
+      </c>
+      <c r="D16">
+        <v>2771761</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3">
+        <v>43308</v>
+      </c>
+      <c r="D17">
+        <v>411111</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43310</v>
+      </c>
+      <c r="D18">
+        <v>2291667</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3">
+        <v>43311</v>
+      </c>
+      <c r="D19">
+        <v>2294508</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3">
+        <v>43460</v>
+      </c>
+      <c r="D20">
+        <v>4635851</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3">
+        <v>43461</v>
+      </c>
+      <c r="D21">
+        <v>4638757</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3">
+        <v>43338</v>
+      </c>
+      <c r="D22">
+        <v>494444</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3">
+        <v>43340</v>
+      </c>
+      <c r="D23">
+        <v>3800000</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3">
+        <v>43341</v>
+      </c>
+      <c r="D24">
+        <v>3802883</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3">
+        <v>43520</v>
+      </c>
+      <c r="D25">
+        <v>7744400</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3">
+        <v>43521</v>
+      </c>
+      <c r="D26">
+        <v>7747393</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3">
+        <v>43398</v>
+      </c>
+      <c r="D27">
+        <v>661111</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3">
+        <v>43400</v>
+      </c>
+      <c r="D28">
+        <v>5066667</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3">
+        <v>43401</v>
+      </c>
+      <c r="D29">
+        <v>5069585</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3">
+        <v>43640</v>
+      </c>
+      <c r="D30">
+        <v>10390044</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3">
+        <v>43641</v>
+      </c>
+      <c r="D31">
+        <v>10393111</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="3">
+        <v>43428</v>
+      </c>
+      <c r="D32">
+        <v>744444</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="3">
+        <v>43430</v>
+      </c>
+      <c r="D33">
+        <v>5850000</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="3">
+        <v>43431</v>
+      </c>
+      <c r="D34">
+        <v>5852940</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="3">
+        <v>43700</v>
+      </c>
+      <c r="D35">
+        <v>12042225</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="3">
+        <v>43701</v>
+      </c>
+      <c r="D36">
+        <v>12045337</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="3">
+        <v>43488</v>
+      </c>
+      <c r="D37">
+        <v>911111</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="3">
+        <v>43490</v>
+      </c>
+      <c r="D38">
+        <v>7150000</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="3">
+        <v>43491</v>
+      </c>
+      <c r="D39">
+        <v>7152976</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="3">
+        <v>43820</v>
+      </c>
+      <c r="D40">
+        <v>14811225</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="3">
+        <v>43821</v>
+      </c>
+      <c r="D41">
+        <v>14814414</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="3">
+        <v>43518</v>
+      </c>
+      <c r="D42">
+        <v>994444</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="3">
+        <v>43520</v>
+      </c>
+      <c r="D43">
+        <v>8000000</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="3">
+        <v>43521</v>
+      </c>
+      <c r="D44">
+        <v>8003000</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="3">
+        <v>43880</v>
+      </c>
+      <c r="D45">
+        <v>16640000</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="3">
+        <v>43881</v>
+      </c>
+      <c r="D46">
+        <v>16643240</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="3">
+        <v>43638</v>
+      </c>
+      <c r="D47">
+        <v>1327777</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="3">
+        <v>43640</v>
+      </c>
+      <c r="D48">
+        <v>10666667</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="3">
+        <v>43641</v>
+      </c>
+      <c r="D49">
+        <v>10669741</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="3">
+        <v>44120</v>
+      </c>
+      <c r="D50">
+        <v>22471111</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="3">
+        <v>44121</v>
+      </c>
+      <c r="D51">
+        <v>22474513</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="3">
+        <v>43698</v>
+      </c>
+      <c r="D52">
+        <v>1494444</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="3">
+        <v>43700</v>
+      </c>
+      <c r="D53">
+        <v>12150000</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="3">
+        <v>43701</v>
+      </c>
+      <c r="D54">
+        <v>12153115</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="3">
+        <v>44240</v>
+      </c>
+      <c r="D55">
+        <v>25776225</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="3">
+        <v>44241</v>
+      </c>
+      <c r="D56">
+        <v>25779719</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="3">
+        <v>43758</v>
+      </c>
+      <c r="D57">
+        <v>1661111</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="3">
+        <v>43760</v>
+      </c>
+      <c r="D58">
+        <v>13500000</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="3">
+        <v>43761</v>
+      </c>
+      <c r="D59">
+        <v>13503153</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="3">
+        <v>44360</v>
+      </c>
+      <c r="D60">
+        <v>28822500</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="3">
+        <v>44361</v>
+      </c>
+      <c r="D61">
+        <v>28826078</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="3">
+        <v>43878</v>
+      </c>
+      <c r="D62">
+        <v>1994444</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="3">
+        <v>43880</v>
+      </c>
+      <c r="D63">
+        <v>16200000</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="3">
+        <v>43881</v>
+      </c>
+      <c r="D64">
+        <v>16203228</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="3">
+        <v>44600</v>
+      </c>
+      <c r="D65">
+        <v>35024400</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="3">
+        <v>44601</v>
+      </c>
+      <c r="D66">
+        <v>35028151</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="3">
+        <v>44058</v>
+      </c>
+      <c r="D67">
+        <v>2494444</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="3">
+        <v>44060</v>
+      </c>
+      <c r="D68">
+        <v>20250000</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="3">
+        <v>44061</v>
+      </c>
+      <c r="D69">
+        <v>20253340</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="3">
+        <v>44960</v>
+      </c>
+      <c r="D70">
+        <v>44600625</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="3">
+        <v>44961</v>
+      </c>
+      <c r="D71">
+        <v>44604642</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" s="3">
+        <v>44238</v>
+      </c>
+      <c r="D72">
+        <v>2994444</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="3">
+        <v>44240</v>
+      </c>
+      <c r="D73">
+        <v>24300000</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="3">
+        <v>44241</v>
+      </c>
+      <c r="D74">
+        <v>24303453</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H74" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="3">
+        <v>45320</v>
+      </c>
+      <c r="D75">
+        <v>54504900</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="3">
+        <v>45321</v>
+      </c>
+      <c r="D76">
+        <v>54509192</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" s="1">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/testcase/InterestTestData.xlsx
+++ b/testcase/InterestTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitproject\QLSTK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitproject\QLSTK\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J76"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,8 +471,10 @@
     <col min="4" max="4" width="9.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="18.33203125" style="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="19.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="54.5546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1" collapsed="1"/>
+    <col min="7" max="7" width="21.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="10" width="8.88671875" style="1" collapsed="1"/>
+    <col min="11" max="11" width="43.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
